--- a/statics_points.xlsx
+++ b/statics_points.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +465,37 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tp</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>r2m</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ws10</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sp</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>wd10</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>wd10_2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>epe</t>
         </is>
       </c>
     </row>
@@ -470,21 +504,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>116.0000000000235</v>
+        <v>115.9999999999974</v>
       </c>
       <c r="C2" t="n">
-        <v>30.99999999999966</v>
+        <v>31.00000000000023</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2023-10</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45257</v>
       </c>
       <c r="F2" t="n">
-        <v>110.6365174374796</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9828641414642334</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.23664379119873</v>
+      </c>
+      <c r="I2" t="n">
+        <v>95053.1796875</v>
+      </c>
+      <c r="J2" t="n">
+        <v>37.16352844238281</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -492,21 +542,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>117.000000000024</v>
+        <v>116.9999999999973</v>
       </c>
       <c r="C3" t="n">
-        <v>30.99999999999966</v>
+        <v>31.00000000000023</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2023-10</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45257</v>
       </c>
       <c r="F3" t="n">
-        <v>174.2101836396803</v>
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9466797113418579</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.052109479904175</v>
+      </c>
+      <c r="I3" t="n">
+        <v>101676.421875</v>
+      </c>
+      <c r="J3" t="n">
+        <v>244.770751953125</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -514,21 +580,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>118.0000000000245</v>
+        <v>117.9999999999973</v>
       </c>
       <c r="C4" t="n">
-        <v>30.99999999999966</v>
+        <v>31.00000000000023</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2023-10</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45257</v>
       </c>
       <c r="F4" t="n">
-        <v>182.5468256215534</v>
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9604111313819885</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5177003741264343</v>
+      </c>
+      <c r="I4" t="n">
+        <v>101943.3203125</v>
+      </c>
+      <c r="J4" t="n">
+        <v>182.2601776123047</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -536,21 +618,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>116.0000000000235</v>
+        <v>115.9999999999974</v>
       </c>
       <c r="C5" t="n">
-        <v>31.99999999999964</v>
+        <v>32.00000000000024</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2023-10</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45257</v>
       </c>
       <c r="F5" t="n">
-        <v>359.0644077962717</v>
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9714048504829407</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4325991868972778</v>
+      </c>
+      <c r="I5" t="n">
+        <v>101445.2578125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>266.8313598632812</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -558,21 +656,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>117.000000000024</v>
+        <v>116.9999999999973</v>
       </c>
       <c r="C6" t="n">
-        <v>31.99999999999964</v>
+        <v>32.00000000000024</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2023-10</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45257</v>
       </c>
       <c r="F6" t="n">
-        <v>4.901727153914464</v>
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9484747052192688</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.418343067169189</v>
+      </c>
+      <c r="I6" t="n">
+        <v>101248.5390625</v>
+      </c>
+      <c r="J6" t="n">
+        <v>206.7749938964844</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -580,21 +694,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>118.0000000000245</v>
+        <v>117.9999999999973</v>
       </c>
       <c r="C7" t="n">
-        <v>31.99999999999964</v>
+        <v>32.00000000000024</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2023-10</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45257</v>
       </c>
       <c r="F7" t="n">
-        <v>354.8755953352403</v>
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9891579151153564</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6443386673927307</v>
+      </c>
+      <c r="I7" t="n">
+        <v>101621.609375</v>
+      </c>
+      <c r="J7" t="n">
+        <v>29.4581298828125</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -602,21 +732,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>116.0000000000235</v>
+        <v>115.9999999999974</v>
       </c>
       <c r="C8" t="n">
-        <v>32.99999999999962</v>
+        <v>33.00000000000026</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2023-10</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45257</v>
       </c>
       <c r="F8" t="n">
-        <v>26.7039533022504</v>
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7793461084365845</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.603749752044678</v>
+      </c>
+      <c r="I8" t="n">
+        <v>101642.609375</v>
+      </c>
+      <c r="J8" t="n">
+        <v>239.8346710205078</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -624,21 +770,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>117.000000000024</v>
+        <v>116.9999999999973</v>
       </c>
       <c r="C9" t="n">
-        <v>32.99999999999962</v>
+        <v>33.00000000000026</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2023-10</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45257</v>
       </c>
       <c r="F9" t="n">
-        <v>11.48304736452712</v>
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9597651958465576</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.247301578521729</v>
+      </c>
+      <c r="I9" t="n">
+        <v>101733.8203125</v>
+      </c>
+      <c r="J9" t="n">
+        <v>186.8229675292969</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -646,21 +808,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>118.0000000000245</v>
+        <v>117.9999999999973</v>
       </c>
       <c r="C10" t="n">
-        <v>32.99999999999962</v>
+        <v>33.00000000000026</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2023-10</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45257</v>
       </c>
       <c r="F10" t="n">
-        <v>31.89852051766547</v>
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9664892554283142</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.255878806114197</v>
+      </c>
+      <c r="I10" t="n">
+        <v>101580.2109375</v>
+      </c>
+      <c r="J10" t="n">
+        <v>209.3587799072266</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -668,21 +846,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>116.0000000000235</v>
+        <v>115.9999999999974</v>
       </c>
       <c r="C11" t="n">
-        <v>33.99999999999959</v>
+        <v>34.00000000000027</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2023-10</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45257</v>
       </c>
       <c r="F11" t="n">
-        <v>308.8490481577784</v>
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.8999664187431335</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.455533623695374</v>
+      </c>
+      <c r="I11" t="n">
+        <v>101455.4609375</v>
+      </c>
+      <c r="J11" t="n">
+        <v>201.5411224365234</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -690,21 +884,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>117.000000000024</v>
+        <v>116.9999999999973</v>
       </c>
       <c r="C12" t="n">
-        <v>33.99999999999959</v>
+        <v>34.00000000000027</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2023-10</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45257</v>
       </c>
       <c r="F12" t="n">
-        <v>10.85042435890881</v>
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8200274705886841</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.811216831207275</v>
+      </c>
+      <c r="I12" t="n">
+        <v>100922.609375</v>
+      </c>
+      <c r="J12" t="n">
+        <v>254.6474609375</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -712,285 +922,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>118.0000000000245</v>
+        <v>117.9999999999973</v>
       </c>
       <c r="C13" t="n">
-        <v>33.99999999999959</v>
+        <v>34.00000000000027</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2023-10</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45257</v>
       </c>
       <c r="F13" t="n">
-        <v>53.27518016904457</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>116.0000000000235</v>
-      </c>
-      <c r="C14" t="n">
-        <v>30.99999999999966</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>110.6365174374796</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>117.000000000024</v>
-      </c>
-      <c r="C15" t="n">
-        <v>30.99999999999966</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>174.2101836396803</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" t="n">
-        <v>118.0000000000245</v>
-      </c>
-      <c r="C16" t="n">
-        <v>30.99999999999966</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>182.5468256215534</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9688457250595093</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.2380867004394531</v>
+      </c>
+      <c r="I13" t="n">
+        <v>101634.96875</v>
+      </c>
+      <c r="J13" t="n">
+        <v>159.5956268310547</v>
+      </c>
+      <c r="K13" t="n">
         <v>3</v>
       </c>
-      <c r="B17" t="n">
-        <v>116.0000000000235</v>
-      </c>
-      <c r="C17" t="n">
-        <v>31.99999999999964</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>359.0644077962717</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>117.000000000024</v>
-      </c>
-      <c r="C18" t="n">
-        <v>31.99999999999964</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4.901727153914464</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>118.0000000000245</v>
-      </c>
-      <c r="C19" t="n">
-        <v>31.99999999999964</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>354.8755953352403</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>6</v>
-      </c>
-      <c r="B20" t="n">
-        <v>116.0000000000235</v>
-      </c>
-      <c r="C20" t="n">
-        <v>32.99999999999962</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>26.7039533022504</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>7</v>
-      </c>
-      <c r="B21" t="n">
-        <v>117.000000000024</v>
-      </c>
-      <c r="C21" t="n">
-        <v>32.99999999999962</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>11.48304736452712</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>8</v>
-      </c>
-      <c r="B22" t="n">
-        <v>118.0000000000245</v>
-      </c>
-      <c r="C22" t="n">
-        <v>32.99999999999962</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>31.89852051766547</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>9</v>
-      </c>
-      <c r="B23" t="n">
-        <v>116.0000000000235</v>
-      </c>
-      <c r="C23" t="n">
-        <v>33.99999999999959</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>308.8490481577784</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>10</v>
-      </c>
-      <c r="B24" t="n">
-        <v>117.000000000024</v>
-      </c>
-      <c r="C24" t="n">
-        <v>33.99999999999959</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10.85042435890881</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>11</v>
-      </c>
-      <c r="B25" t="n">
-        <v>118.0000000000245</v>
-      </c>
-      <c r="C25" t="n">
-        <v>33.99999999999959</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>53.27518016904457</v>
+      <c r="L13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
